--- a/patient_data/patient_4.xlsx
+++ b/patient_data/patient_4.xlsx
@@ -563,13 +563,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1487,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1564,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1632,19 +1632,19 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1718,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2038,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2115,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2150,16 +2150,16 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2192,13 +2192,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2227,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
